--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_30_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_30_replicas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kisshin\Desktop\Mestrado Ricardo\Thesis\Msc_thesis\Data\Modeling Stage\Results\IMS\Non temporal models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F52A06A-62F0-4F0C-AA06-00EEEE8D966D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14370" yWindow="225" windowWidth="13995" windowHeight="14265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exam_fail" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="exam_gifted" sheetId="3" r:id="rId3"/>
     <sheet name="final_gifted" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1822,8 +1828,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1886,6 +1892,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1932,7 +1946,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1964,9 +1978,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1998,6 +2030,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2173,14 +2223,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2317,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2309,7 +2361,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2353,7 +2405,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2397,7 +2449,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2441,7 +2493,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2485,7 +2537,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2529,7 +2581,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2573,7 +2625,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2617,7 +2669,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2661,7 +2713,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2705,7 +2757,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2749,7 +2801,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2799,14 +2851,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2847,7 +2899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2891,7 +2943,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2935,7 +2987,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2979,7 +3031,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3023,7 +3075,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3067,7 +3119,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -3111,7 +3163,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3155,7 +3207,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -3199,7 +3251,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -3243,7 +3295,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3287,7 +3339,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3331,7 +3383,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3375,7 +3427,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3425,14 +3477,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3517,7 +3571,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3561,7 +3615,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3605,7 +3659,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3649,7 +3703,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3693,7 +3747,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -3737,7 +3791,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3781,7 +3835,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -3825,7 +3879,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -3869,7 +3923,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3913,7 +3967,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3957,7 +4011,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -4001,7 +4055,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -4051,14 +4105,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4099,7 +4153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4143,7 +4197,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4187,7 +4241,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4231,7 +4285,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4275,7 +4329,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4319,7 +4373,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -4363,7 +4417,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4407,7 +4461,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -4451,7 +4505,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4495,7 +4549,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -4539,7 +4593,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -4583,7 +4637,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -4627,7 +4681,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
